--- a/Utilities/Register_mapping.xlsx
+++ b/Utilities/Register_mapping.xlsx
@@ -469,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F1DE37-C571-4653-9FA5-5513C63CFBD0}">
   <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Utilities/Register_mapping.xlsx
+++ b/Utilities/Register_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0ec3ce2762cb4f0e/Dokumenter/Semester 7/TFE4141 DDS1/Project/Utilities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F591A41-A7DD-47F0-9F64-1D552DCEFECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="8_{6F591A41-A7DD-47F0-9F64-1D552DCEFECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B0484C7-451D-4855-8216-009AA32CF7C7}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="7416" windowWidth="23256" windowHeight="12456" xr2:uid="{12168BE7-A9DF-4867-9257-7916B1724367}"/>
   </bookViews>
@@ -36,74 +36,118 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
-  <si>
-    <t xml:space="preserve">Register bit mappings </t>
-  </si>
-  <si>
-    <t>control_status</t>
-  </si>
-  <si>
-    <t>control_debug</t>
-  </si>
-  <si>
-    <t>Register\Index</t>
-  </si>
-  <si>
-    <t>ainc_clk_en_bit</t>
-  </si>
-  <si>
-    <t>add_out_clk_en_bit</t>
-  </si>
-  <si>
-    <t>r_out_clk_en_bit</t>
-  </si>
-  <si>
-    <t>ainc_rst_bit</t>
-  </si>
-  <si>
-    <t>add_out_rst_bit</t>
-  </si>
-  <si>
-    <t>r_out_rst_bit</t>
-  </si>
-  <si>
-    <t>mux_ctl</t>
-  </si>
-  <si>
-    <t>control_state</t>
-  </si>
-  <si>
-    <t>datapath_status</t>
-  </si>
-  <si>
-    <t>datapath_debug</t>
-  </si>
-  <si>
-    <t>ainc_ierr_bit</t>
-  </si>
-  <si>
-    <t>ainc_clk_bit</t>
-  </si>
-  <si>
-    <t>add_out_clk_bit</t>
-  </si>
-  <si>
-    <t>r_out_clk_bit</t>
-  </si>
-  <si>
-    <t>mux_ctl_ierr_bit</t>
-  </si>
-  <si>
-    <t>ainc</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+  <si>
+    <t>Index/Register</t>
+  </si>
+  <si>
+    <t>rsm_status</t>
+  </si>
+  <si>
+    <t>ili</t>
+  </si>
+  <si>
+    <t>ipi</t>
+  </si>
+  <si>
+    <t>c_bm_rval_bit</t>
+  </si>
+  <si>
+    <t>p_bm_rval_bit</t>
+  </si>
+  <si>
+    <t>s_state[0]</t>
+  </si>
+  <si>
+    <t>s_state[1]</t>
+  </si>
+  <si>
+    <t>s_state[2]</t>
+  </si>
+  <si>
+    <t>bm_state[0]</t>
+  </si>
+  <si>
+    <t>bm_state[1]</t>
+  </si>
+  <si>
+    <t>es_index[0]</t>
+  </si>
+  <si>
+    <t>es_index[1]</t>
+  </si>
+  <si>
+    <t>es_index[2]</t>
+  </si>
+  <si>
+    <t>es_index[3]</t>
+  </si>
+  <si>
+    <t>es_index[4]</t>
+  </si>
+  <si>
+    <t>es_index[5]</t>
+  </si>
+  <si>
+    <t>es_index[6]</t>
+  </si>
+  <si>
+    <t>es_index[7]</t>
+  </si>
+  <si>
+    <t>c_mux_ctl_bit</t>
+  </si>
+  <si>
+    <t>p_mux_ctl_bit</t>
+  </si>
+  <si>
+    <t>c_bm_abval_bit</t>
+  </si>
+  <si>
+    <t>p_bm_abval_bit</t>
+  </si>
+  <si>
+    <t>c_reg_clk_en_bit</t>
+  </si>
+  <si>
+    <t>p_reg_clk_en_bit</t>
+  </si>
+  <si>
+    <t>c_reg_rst_bit</t>
+  </si>
+  <si>
+    <t>p_reg_rst_bit</t>
+  </si>
+  <si>
+    <t>reg_valid_bit</t>
+  </si>
+  <si>
+    <t>bm_status</t>
+  </si>
+  <si>
+    <t>ilo</t>
+  </si>
+  <si>
+    <t>ipo</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -131,8 +175,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -148,6 +198,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -467,230 +521,325 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F1DE37-C571-4653-9FA5-5513C63CFBD0}">
-  <dimension ref="A1:AG8"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.6328125" customWidth="1"/>
-    <col min="2" max="14" width="3.6328125" customWidth="1"/>
+    <col min="2" max="2" width="27.08984375" customWidth="1"/>
+    <col min="3" max="3" width="33.08984375" customWidth="1"/>
+    <col min="4" max="4" width="31.6328125" customWidth="1"/>
+    <col min="5" max="14" width="3.6328125" customWidth="1"/>
     <col min="15" max="33" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>29</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>13</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>12</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>11</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>10</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>9</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>8</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>7</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>6</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>5</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>4</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>31</v>
-      </c>
-      <c r="C3">
+      <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D3">
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>2</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E3">
-        <v>28</v>
-      </c>
-      <c r="F3">
-        <v>27</v>
-      </c>
-      <c r="G3">
-        <v>26</v>
-      </c>
-      <c r="H3">
-        <v>25</v>
-      </c>
-      <c r="I3">
-        <v>24</v>
-      </c>
-      <c r="J3">
-        <v>23</v>
-      </c>
-      <c r="K3">
-        <v>22</v>
-      </c>
-      <c r="L3">
-        <v>21</v>
-      </c>
-      <c r="M3">
-        <v>20</v>
-      </c>
-      <c r="N3">
-        <v>19</v>
-      </c>
-      <c r="O3">
-        <v>18</v>
-      </c>
-      <c r="P3">
-        <v>17</v>
-      </c>
-      <c r="Q3">
-        <v>16</v>
-      </c>
-      <c r="R3">
-        <v>15</v>
-      </c>
-      <c r="S3">
-        <v>14</v>
-      </c>
-      <c r="T3">
-        <v>13</v>
-      </c>
-      <c r="U3">
-        <v>12</v>
-      </c>
-      <c r="V3">
-        <v>11</v>
-      </c>
-      <c r="W3">
-        <v>10</v>
-      </c>
-      <c r="X3">
-        <v>9</v>
-      </c>
-      <c r="Y3">
-        <v>8</v>
-      </c>
-      <c r="Z3">
-        <v>7</v>
-      </c>
-      <c r="AA3">
-        <v>6</v>
-      </c>
-      <c r="AB3">
-        <v>5</v>
-      </c>
-      <c r="AC3">
-        <v>4</v>
-      </c>
-      <c r="AD3">
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AE3">
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>0</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AF3">
-        <v>1</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="X5" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="X6" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="O8" t="s">
-        <v>18</v>
-      </c>
-      <c r="P8" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>10</v>
-      </c>
-      <c r="R8" t="s">
-        <v>19</v>
-      </c>
-      <c r="S8" t="s">
-        <v>19</v>
-      </c>
-      <c r="T8" t="s">
-        <v>19</v>
-      </c>
-      <c r="U8" t="s">
-        <v>19</v>
-      </c>
-      <c r="V8" t="s">
-        <v>19</v>
-      </c>
-      <c r="W8" t="s">
-        <v>19</v>
-      </c>
-      <c r="X8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>14</v>
-      </c>
+      <c r="D33" s="2"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B33">
+    <sortCondition descending="1" ref="A2:A33"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Utilities/Register_mapping.xlsx
+++ b/Utilities/Register_mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0ec3ce2762cb4f0e/Dokumenter/Semester 7/TFE4141 DDS1/Project/Utilities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="8_{6F591A41-A7DD-47F0-9F64-1D552DCEFECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B0484C7-451D-4855-8216-009AA32CF7C7}"/>
+  <xr:revisionPtr revIDLastSave="156" documentId="8_{6F591A41-A7DD-47F0-9F64-1D552DCEFECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B87F95C-174A-4F34-8A73-CE5434961E2C}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="7416" windowWidth="23256" windowHeight="12456" xr2:uid="{12168BE7-A9DF-4867-9257-7916B1724367}"/>
+    <workbookView xWindow="44710" yWindow="0" windowWidth="19380" windowHeight="10530" xr2:uid="{12168BE7-A9DF-4867-9257-7916B1724367}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
-  <si>
-    <t>Index/Register</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
   <si>
     <t>rsm_status</t>
   </si>
@@ -132,22 +129,113 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>c_ainc_clk_en_bit</t>
+  </si>
+  <si>
+    <t>c_add_out_clk_en_bit</t>
+  </si>
+  <si>
+    <t>c_control_state_offset[0]</t>
+  </si>
+  <si>
+    <t>c_control_state_offset[1]</t>
+  </si>
+  <si>
+    <t>c_ainc_ierr_bit</t>
+  </si>
+  <si>
+    <t>c_mux_ctl_ierr_bit</t>
+  </si>
+  <si>
+    <t>c_ainc[0]</t>
+  </si>
+  <si>
+    <t>c_ainc[1]</t>
+  </si>
+  <si>
+    <t>c_ainc[2]</t>
+  </si>
+  <si>
+    <t>c_ainc[3]</t>
+  </si>
+  <si>
+    <t>c_ainc[4]</t>
+  </si>
+  <si>
+    <t>c_ainc[5]</t>
+  </si>
+  <si>
+    <t>c_ainc[6]</t>
+  </si>
+  <si>
+    <t>c_ainc[7]</t>
+  </si>
+  <si>
+    <t>c_mux_ctl[0]</t>
+  </si>
+  <si>
+    <t>c_mux_ctl[1]</t>
+  </si>
+  <si>
+    <t>p_mux_ctl[1]</t>
+  </si>
+  <si>
+    <t>p_mux_ctl[0]</t>
+  </si>
+  <si>
+    <t>p_ainc[7]</t>
+  </si>
+  <si>
+    <t>p_ainc[6]</t>
+  </si>
+  <si>
+    <t>p_ainc[5]</t>
+  </si>
+  <si>
+    <t>p_ainc[4]</t>
+  </si>
+  <si>
+    <t>p_ainc[3]</t>
+  </si>
+  <si>
+    <t>p_ainc[2]</t>
+  </si>
+  <si>
+    <t>p_ainc[1]</t>
+  </si>
+  <si>
+    <t>p_ainc[0]</t>
+  </si>
+  <si>
+    <t>p_mux_ctl_ierr_bit</t>
+  </si>
+  <si>
+    <t>p_ainc_ierr_bit</t>
+  </si>
+  <si>
+    <t>p_control_state_offset[1]</t>
+  </si>
+  <si>
+    <t>p_control_state_offset[0]</t>
+  </si>
+  <si>
+    <t>p_add_out_clk_en_bit</t>
+  </si>
+  <si>
+    <t>p_ainc_clk_en_bit</t>
+  </si>
+  <si>
+    <t>Index</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -175,11 +263,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -187,7 +272,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -202,6 +297,18 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9D524BAE-37DB-4CD3-9FEC-033BFA6F43AC}" name="Table2" displayName="Table2" ref="A1:C33" totalsRowShown="0">
+  <autoFilter ref="A1:C33" xr:uid="{9D524BAE-37DB-4CD3-9FEC-033BFA6F43AC}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{74926148-EEC3-4E74-BA8D-0ADB204D9D2E}" name="Index" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{5D3BF8D6-15B0-4C10-B71A-15F857CDAF34}" name="rsm_status" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{47CED066-21DB-413A-ADB5-5AC613978ACB}" name="bm_status" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -523,323 +630,423 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F1DE37-C571-4653-9FA5-5513C63CFBD0}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" customWidth="1"/>
-    <col min="2" max="2" width="27.08984375" customWidth="1"/>
-    <col min="3" max="3" width="33.08984375" customWidth="1"/>
-    <col min="4" max="4" width="31.6328125" customWidth="1"/>
-    <col min="5" max="14" width="3.6328125" customWidth="1"/>
-    <col min="15" max="33" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" customWidth="1"/>
+    <col min="5" max="14" width="3.5703125" customWidth="1"/>
+    <col min="15" max="33" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>13</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>11</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>10</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>7</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>6</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>3</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>2</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>31</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>29</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>28</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>27</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>26</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>25</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>24</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>23</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>21</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>20</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>19</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>18</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>17</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>15</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
-        <v>14</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>13</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
-        <v>12</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
-        <v>11</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
-        <v>10</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
-        <v>9</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
-        <v>8</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
-        <v>7</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
-        <v>6</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
-        <v>5</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
-        <v>4</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
-        <v>3</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
+      <c r="B32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
+      <c r="C32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
-        <v>0</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="2"/>
+      <c r="C33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B33">
     <sortCondition descending="1" ref="A2:A33"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Utilities/Register_mapping.xlsx
+++ b/Utilities/Register_mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0ec3ce2762cb4f0e/Dokumenter/Semester 7/TFE4141 DDS1/Project/Utilities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="156" documentId="8_{6F591A41-A7DD-47F0-9F64-1D552DCEFECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B87F95C-174A-4F34-8A73-CE5434961E2C}"/>
+  <xr:revisionPtr revIDLastSave="160" documentId="8_{6F591A41-A7DD-47F0-9F64-1D552DCEFECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4992FC7-3663-4C6F-AEEB-F703E23B0ED9}"/>
   <bookViews>
-    <workbookView xWindow="44710" yWindow="0" windowWidth="19380" windowHeight="10530" xr2:uid="{12168BE7-A9DF-4867-9257-7916B1724367}"/>
+    <workbookView xWindow="-23148" yWindow="7416" windowWidth="23256" windowHeight="12456" xr2:uid="{12168BE7-A9DF-4867-9257-7916B1724367}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
   <si>
     <t>rsm_status</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>Index</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>BM_DATAPATH</t>
   </si>
 </sst>
 </file>
@@ -263,16 +269,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -300,12 +312,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9D524BAE-37DB-4CD3-9FEC-033BFA6F43AC}" name="Table2" displayName="Table2" ref="A1:C33" totalsRowShown="0">
-  <autoFilter ref="A1:C33" xr:uid="{9D524BAE-37DB-4CD3-9FEC-033BFA6F43AC}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{74926148-EEC3-4E74-BA8D-0ADB204D9D2E}" name="Index" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{5D3BF8D6-15B0-4C10-B71A-15F857CDAF34}" name="rsm_status" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{47CED066-21DB-413A-ADB5-5AC613978ACB}" name="bm_status" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9D524BAE-37DB-4CD3-9FEC-033BFA6F43AC}" name="Table2" displayName="Table2" ref="A1:D33" totalsRowShown="0">
+  <autoFilter ref="A1:D33" xr:uid="{9D524BAE-37DB-4CD3-9FEC-033BFA6F43AC}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{74926148-EEC3-4E74-BA8D-0ADB204D9D2E}" name="Index" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{5D3BF8D6-15B0-4C10-B71A-15F857CDAF34}" name="rsm_status" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{47CED066-21DB-413A-ADB5-5AC613978ACB}" name="bm_status" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{DD34CCE8-828E-4B64-86E3-6B56DC9B1958}" name="Column1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -628,23 +641,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F1DE37-C571-4653-9FA5-5513C63CFBD0}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" customWidth="1"/>
-    <col min="5" max="14" width="3.5703125" customWidth="1"/>
-    <col min="15" max="33" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" customWidth="1"/>
+    <col min="2" max="2" width="27.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.54296875" customWidth="1"/>
+    <col min="5" max="14" width="3.54296875" customWidth="1"/>
+    <col min="15" max="33" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -654,8 +667,11 @@
       <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>31</v>
       </c>
@@ -667,7 +683,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>30</v>
       </c>
@@ -679,7 +695,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>29</v>
       </c>
@@ -691,7 +707,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>28</v>
       </c>
@@ -703,7 +719,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>27</v>
       </c>
@@ -715,7 +731,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>26</v>
       </c>
@@ -726,8 +742,11 @@
         <v>41</v>
       </c>
       <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>25</v>
       </c>
@@ -738,8 +757,11 @@
         <v>40</v>
       </c>
       <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O8" s="2">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>24</v>
       </c>
@@ -751,7 +773,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>23</v>
       </c>
@@ -763,7 +785,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>22</v>
       </c>
@@ -775,7 +797,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>21</v>
       </c>
@@ -787,7 +809,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>20</v>
       </c>
@@ -799,7 +821,7 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>19</v>
       </c>
@@ -811,7 +833,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>18</v>
       </c>
@@ -823,7 +845,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>17</v>
       </c>
@@ -835,7 +857,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -847,7 +869,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -859,7 +881,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>14</v>
       </c>
@@ -871,7 +893,7 @@
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>13</v>
       </c>
@@ -883,7 +905,7 @@
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>12</v>
       </c>
@@ -895,7 +917,7 @@
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>11</v>
       </c>
@@ -907,7 +929,7 @@
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>10</v>
       </c>
@@ -919,7 +941,7 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>9</v>
       </c>
@@ -931,7 +953,7 @@
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>8</v>
       </c>
@@ -943,7 +965,7 @@
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>7</v>
       </c>
@@ -955,7 +977,7 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>6</v>
       </c>
@@ -967,7 +989,7 @@
       </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>5</v>
       </c>
@@ -979,7 +1001,7 @@
       </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>4</v>
       </c>
@@ -991,7 +1013,7 @@
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -1003,7 +1025,7 @@
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>2</v>
       </c>
@@ -1015,7 +1037,7 @@
       </c>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -1027,7 +1049,7 @@
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>0</v>
       </c>
